--- a/treinamento_teste_produto.xlsx
+++ b/treinamento_teste_produto.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leandro.souza\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77FB534-E970-4A3E-B666-BED26567BFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="teste" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="treinamento" sheetId="2" r:id="rId5"/>
+    <sheet name="teste" sheetId="1" r:id="rId1"/>
+    <sheet name="treinamento" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="347">
   <si>
     <t>codigo</t>
   </si>
@@ -1047,25 +1056,33 @@
   </si>
   <si>
     <t>CEMO000223</t>
+  </si>
+  <si>
+    <t>MOSP000222</t>
+  </si>
+  <si>
+    <t>MOSP0006.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1075,46 +1092,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1304,23 +1324,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W723"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="22.0"/>
+    <col min="1" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1378,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1386,7 +1411,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1444,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1452,7 +1477,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1485,7 +1510,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1518,7 +1543,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1551,7 +1576,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1584,7 +1609,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1617,7 +1642,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1650,7 +1675,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,7 +1708,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1716,7 +1741,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1749,7 +1774,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1782,7 +1807,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1815,7 +1840,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1848,7 +1873,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1881,7 +1906,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1906,7 +1931,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1931,7 +1956,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1956,7 +1981,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1981,7 +2006,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2006,7 +2031,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2031,7 +2056,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2056,7 +2081,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2081,7 +2106,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2106,7 +2131,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2131,7 +2156,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2156,7 +2181,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2181,7 +2206,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2206,7 +2231,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2231,7 +2256,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2256,7 +2281,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2281,7 +2306,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2306,7 +2331,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2331,7 +2356,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2356,7 +2381,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2381,7 +2406,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2406,7 +2431,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2431,7 +2456,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2456,7 +2481,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2481,7 +2506,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2506,7 +2531,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2531,7 +2556,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2556,7 +2581,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2581,7 +2606,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2606,7 +2631,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2631,7 +2656,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2656,7 +2681,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2681,7 +2706,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2706,7 +2731,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2731,7 +2756,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2756,7 +2781,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2781,7 +2806,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2806,7 +2831,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2831,7 +2856,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2856,7 +2881,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2881,7 +2906,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2906,7 +2931,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2931,7 +2956,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2956,7 +2981,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2981,7 +3006,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3006,7 +3031,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3031,7 +3056,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3056,7 +3081,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3081,7 +3106,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3106,7 +3131,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3131,7 +3156,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3156,7 +3181,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3181,7 +3206,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3206,7 +3231,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3231,7 +3256,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3256,7 +3281,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3281,7 +3306,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3306,7 +3331,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3331,7 +3356,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3356,7 +3381,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3381,7 +3406,7 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3406,7 +3431,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3431,7 +3456,7 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3456,7 +3481,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3481,7 +3506,7 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3506,7 +3531,7 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3531,7 +3556,7 @@
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3556,7 +3581,7 @@
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3581,7 +3606,7 @@
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3606,7 +3631,7 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3631,7 +3656,7 @@
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3656,7 +3681,7 @@
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3681,7 +3706,7 @@
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3706,7 +3731,7 @@
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3731,7 +3756,7 @@
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3756,7 +3781,7 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3781,7 +3806,7 @@
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3806,7 +3831,7 @@
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3831,7 +3856,7 @@
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3856,7 +3881,7 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3881,7 +3906,7 @@
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3906,7 +3931,7 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3931,7 +3956,7 @@
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3956,7 +3981,7 @@
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3981,7 +4006,7 @@
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4006,7 +4031,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4031,7 +4056,7 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4056,7 +4081,7 @@
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4081,7 +4106,7 @@
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4106,7 +4131,7 @@
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4131,7 +4156,7 @@
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4156,7 +4181,7 @@
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4181,7 +4206,7 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4206,7 +4231,7 @@
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4231,7 +4256,7 @@
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4256,7 +4281,7 @@
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4281,7 +4306,7 @@
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4306,7 +4331,7 @@
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4331,7 +4356,7 @@
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4356,7 +4381,7 @@
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4381,7 +4406,7 @@
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4406,7 +4431,7 @@
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4431,7 +4456,7 @@
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4456,7 +4481,7 @@
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4481,7 +4506,7 @@
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4506,7 +4531,7 @@
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4531,7 +4556,7 @@
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4556,7 +4581,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4581,7 +4606,7 @@
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4606,7 +4631,7 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4631,7 +4656,7 @@
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4656,7 +4681,7 @@
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4681,7 +4706,7 @@
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4706,7 +4731,7 @@
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4731,7 +4756,7 @@
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4756,7 +4781,7 @@
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4781,7 +4806,7 @@
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4806,7 +4831,7 @@
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4831,7 +4856,7 @@
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4856,7 +4881,7 @@
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4881,7 +4906,7 @@
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4906,7 +4931,7 @@
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4931,7 +4956,7 @@
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4956,7 +4981,7 @@
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4981,7 +5006,7 @@
       <c r="V141" s="2"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5006,7 +5031,7 @@
       <c r="V142" s="2"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5031,7 +5056,7 @@
       <c r="V143" s="2"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5056,7 +5081,7 @@
       <c r="V144" s="2"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5081,7 +5106,7 @@
       <c r="V145" s="2"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5106,7 +5131,7 @@
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5131,7 +5156,7 @@
       <c r="V147" s="2"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5156,7 +5181,7 @@
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5181,7 +5206,7 @@
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5206,7 +5231,7 @@
       <c r="V150" s="2"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5231,7 +5256,7 @@
       <c r="V151" s="2"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5256,7 +5281,7 @@
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5281,7 +5306,7 @@
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5306,7 +5331,7 @@
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5331,7 +5356,7 @@
       <c r="V155" s="2"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5356,7 +5381,7 @@
       <c r="V156" s="2"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5381,7 +5406,7 @@
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5406,7 +5431,7 @@
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5431,7 +5456,7 @@
       <c r="V159" s="2"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5456,7 +5481,7 @@
       <c r="V160" s="2"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5481,7 +5506,7 @@
       <c r="V161" s="2"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5506,7 +5531,7 @@
       <c r="V162" s="2"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5531,7 +5556,7 @@
       <c r="V163" s="2"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5556,7 +5581,7 @@
       <c r="V164" s="2"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5581,7 +5606,7 @@
       <c r="V165" s="2"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5606,7 +5631,7 @@
       <c r="V166" s="2"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5631,7 +5656,7 @@
       <c r="V167" s="2"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5656,7 +5681,7 @@
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5681,7 +5706,7 @@
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5706,7 +5731,7 @@
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5731,7 +5756,7 @@
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5756,7 +5781,7 @@
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5781,7 +5806,7 @@
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5806,7 +5831,7 @@
       <c r="V174" s="2"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5831,7 +5856,7 @@
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5856,7 +5881,7 @@
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5881,7 +5906,7 @@
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5906,7 +5931,7 @@
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5931,7 +5956,7 @@
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5956,7 +5981,7 @@
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5981,7 +6006,7 @@
       <c r="V181" s="2"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6006,7 +6031,7 @@
       <c r="V182" s="2"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6031,7 +6056,7 @@
       <c r="V183" s="2"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6056,7 +6081,7 @@
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6081,7 +6106,7 @@
       <c r="V185" s="2"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6106,7 +6131,7 @@
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6131,7 +6156,7 @@
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6156,7 +6181,7 @@
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6181,7 +6206,7 @@
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6206,7 +6231,7 @@
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6231,7 +6256,7 @@
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6256,7 +6281,7 @@
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6281,7 +6306,7 @@
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6306,7 +6331,7 @@
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6331,7 +6356,7 @@
       <c r="V195" s="2"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6356,7 +6381,7 @@
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6381,7 +6406,7 @@
       <c r="V197" s="2"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6406,7 +6431,7 @@
       <c r="V198" s="2"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6431,7 +6456,7 @@
       <c r="V199" s="2"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6456,7 +6481,7 @@
       <c r="V200" s="2"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6481,7 +6506,7 @@
       <c r="V201" s="2"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6506,7 +6531,7 @@
       <c r="V202" s="2"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6531,7 +6556,7 @@
       <c r="V203" s="2"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6556,7 +6581,7 @@
       <c r="V204" s="2"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6581,7 +6606,7 @@
       <c r="V205" s="2"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6606,7 +6631,7 @@
       <c r="V206" s="2"/>
       <c r="W206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6631,7 +6656,7 @@
       <c r="V207" s="2"/>
       <c r="W207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6656,7 +6681,7 @@
       <c r="V208" s="2"/>
       <c r="W208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6681,7 +6706,7 @@
       <c r="V209" s="2"/>
       <c r="W209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6706,7 +6731,7 @@
       <c r="V210" s="2"/>
       <c r="W210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6731,7 +6756,7 @@
       <c r="V211" s="2"/>
       <c r="W211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6756,7 +6781,7 @@
       <c r="V212" s="2"/>
       <c r="W212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6781,7 +6806,7 @@
       <c r="V213" s="2"/>
       <c r="W213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6806,7 +6831,7 @@
       <c r="V214" s="2"/>
       <c r="W214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6831,7 +6856,7 @@
       <c r="V215" s="2"/>
       <c r="W215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6856,7 +6881,7 @@
       <c r="V216" s="2"/>
       <c r="W216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6881,7 +6906,7 @@
       <c r="V217" s="2"/>
       <c r="W217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6906,7 +6931,7 @@
       <c r="V218" s="2"/>
       <c r="W218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6931,7 +6956,7 @@
       <c r="V219" s="2"/>
       <c r="W219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6956,7 +6981,7 @@
       <c r="V220" s="2"/>
       <c r="W220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6981,7 +7006,7 @@
       <c r="V221" s="2"/>
       <c r="W221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7006,7 +7031,7 @@
       <c r="V222" s="2"/>
       <c r="W222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7031,7 +7056,7 @@
       <c r="V223" s="2"/>
       <c r="W223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7056,7 +7081,7 @@
       <c r="V224" s="2"/>
       <c r="W224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7081,7 +7106,7 @@
       <c r="V225" s="2"/>
       <c r="W225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7106,7 +7131,7 @@
       <c r="V226" s="2"/>
       <c r="W226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7131,7 +7156,7 @@
       <c r="V227" s="2"/>
       <c r="W227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7156,7 +7181,7 @@
       <c r="V228" s="2"/>
       <c r="W228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7181,7 +7206,7 @@
       <c r="V229" s="2"/>
       <c r="W229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7206,7 +7231,7 @@
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7231,7 +7256,7 @@
       <c r="V231" s="2"/>
       <c r="W231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -7256,7 +7281,7 @@
       <c r="V232" s="2"/>
       <c r="W232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7281,7 +7306,7 @@
       <c r="V233" s="2"/>
       <c r="W233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7306,7 +7331,7 @@
       <c r="V234" s="2"/>
       <c r="W234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7331,7 +7356,7 @@
       <c r="V235" s="2"/>
       <c r="W235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7356,7 +7381,7 @@
       <c r="V236" s="2"/>
       <c r="W236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7381,7 +7406,7 @@
       <c r="V237" s="2"/>
       <c r="W237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7406,7 +7431,7 @@
       <c r="V238" s="2"/>
       <c r="W238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7431,7 +7456,7 @@
       <c r="V239" s="2"/>
       <c r="W239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7456,7 +7481,7 @@
       <c r="V240" s="2"/>
       <c r="W240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7481,7 +7506,7 @@
       <c r="V241" s="2"/>
       <c r="W241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7506,7 +7531,7 @@
       <c r="V242" s="2"/>
       <c r="W242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7531,7 +7556,7 @@
       <c r="V243" s="2"/>
       <c r="W243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7556,7 +7581,7 @@
       <c r="V244" s="2"/>
       <c r="W244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7581,7 +7606,7 @@
       <c r="V245" s="2"/>
       <c r="W245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7606,7 +7631,7 @@
       <c r="V246" s="2"/>
       <c r="W246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7631,7 +7656,7 @@
       <c r="V247" s="2"/>
       <c r="W247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7656,7 +7681,7 @@
       <c r="V248" s="2"/>
       <c r="W248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7681,7 +7706,7 @@
       <c r="V249" s="2"/>
       <c r="W249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7706,7 +7731,7 @@
       <c r="V250" s="2"/>
       <c r="W250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7731,7 +7756,7 @@
       <c r="V251" s="2"/>
       <c r="W251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7756,7 +7781,7 @@
       <c r="V252" s="2"/>
       <c r="W252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7781,7 +7806,7 @@
       <c r="V253" s="2"/>
       <c r="W253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7806,7 +7831,7 @@
       <c r="V254" s="2"/>
       <c r="W254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7831,7 +7856,7 @@
       <c r="V255" s="2"/>
       <c r="W255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7856,7 +7881,7 @@
       <c r="V256" s="2"/>
       <c r="W256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7881,7 +7906,7 @@
       <c r="V257" s="2"/>
       <c r="W257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7906,7 +7931,7 @@
       <c r="V258" s="2"/>
       <c r="W258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7931,7 +7956,7 @@
       <c r="V259" s="2"/>
       <c r="W259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7956,7 +7981,7 @@
       <c r="V260" s="2"/>
       <c r="W260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -7981,7 +8006,7 @@
       <c r="V261" s="2"/>
       <c r="W261" s="2"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -8006,7 +8031,7 @@
       <c r="V262" s="2"/>
       <c r="W262" s="2"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -8031,7 +8056,7 @@
       <c r="V263" s="2"/>
       <c r="W263" s="2"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -8056,7 +8081,7 @@
       <c r="V264" s="2"/>
       <c r="W264" s="2"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -8081,7 +8106,7 @@
       <c r="V265" s="2"/>
       <c r="W265" s="2"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -8106,7 +8131,7 @@
       <c r="V266" s="2"/>
       <c r="W266" s="2"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -8131,7 +8156,7 @@
       <c r="V267" s="2"/>
       <c r="W267" s="2"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -8156,7 +8181,7 @@
       <c r="V268" s="2"/>
       <c r="W268" s="2"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -8181,7 +8206,7 @@
       <c r="V269" s="2"/>
       <c r="W269" s="2"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -8206,7 +8231,7 @@
       <c r="V270" s="2"/>
       <c r="W270" s="2"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -8231,7 +8256,7 @@
       <c r="V271" s="2"/>
       <c r="W271" s="2"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8256,7 +8281,7 @@
       <c r="V272" s="2"/>
       <c r="W272" s="2"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8281,7 +8306,7 @@
       <c r="V273" s="2"/>
       <c r="W273" s="2"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8306,7 +8331,7 @@
       <c r="V274" s="2"/>
       <c r="W274" s="2"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8331,7 +8356,7 @@
       <c r="V275" s="2"/>
       <c r="W275" s="2"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8356,7 +8381,7 @@
       <c r="V276" s="2"/>
       <c r="W276" s="2"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8381,7 +8406,7 @@
       <c r="V277" s="2"/>
       <c r="W277" s="2"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8406,7 +8431,7 @@
       <c r="V278" s="2"/>
       <c r="W278" s="2"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8431,7 +8456,7 @@
       <c r="V279" s="2"/>
       <c r="W279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8456,7 +8481,7 @@
       <c r="V280" s="2"/>
       <c r="W280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8481,7 +8506,7 @@
       <c r="V281" s="2"/>
       <c r="W281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8506,7 +8531,7 @@
       <c r="V282" s="2"/>
       <c r="W282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8531,7 +8556,7 @@
       <c r="V283" s="2"/>
       <c r="W283" s="2"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8556,7 +8581,7 @@
       <c r="V284" s="2"/>
       <c r="W284" s="2"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8581,7 +8606,7 @@
       <c r="V285" s="2"/>
       <c r="W285" s="2"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8606,7 +8631,7 @@
       <c r="V286" s="2"/>
       <c r="W286" s="2"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8631,7 +8656,7 @@
       <c r="V287" s="2"/>
       <c r="W287" s="2"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8656,7 +8681,7 @@
       <c r="V288" s="2"/>
       <c r="W288" s="2"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8681,7 +8706,7 @@
       <c r="V289" s="2"/>
       <c r="W289" s="2"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -8706,7 +8731,7 @@
       <c r="V290" s="2"/>
       <c r="W290" s="2"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -8731,7 +8756,7 @@
       <c r="V291" s="2"/>
       <c r="W291" s="2"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -8756,7 +8781,7 @@
       <c r="V292" s="2"/>
       <c r="W292" s="2"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -8781,7 +8806,7 @@
       <c r="V293" s="2"/>
       <c r="W293" s="2"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -8806,7 +8831,7 @@
       <c r="V294" s="2"/>
       <c r="W294" s="2"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -8831,7 +8856,7 @@
       <c r="V295" s="2"/>
       <c r="W295" s="2"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -8856,7 +8881,7 @@
       <c r="V296" s="2"/>
       <c r="W296" s="2"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -8881,7 +8906,7 @@
       <c r="V297" s="2"/>
       <c r="W297" s="2"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -8906,7 +8931,7 @@
       <c r="V298" s="2"/>
       <c r="W298" s="2"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -8931,7 +8956,7 @@
       <c r="V299" s="2"/>
       <c r="W299" s="2"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -8956,7 +8981,7 @@
       <c r="V300" s="2"/>
       <c r="W300" s="2"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -8981,7 +9006,7 @@
       <c r="V301" s="2"/>
       <c r="W301" s="2"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -9006,7 +9031,7 @@
       <c r="V302" s="2"/>
       <c r="W302" s="2"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -9031,7 +9056,7 @@
       <c r="V303" s="2"/>
       <c r="W303" s="2"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -9056,7 +9081,7 @@
       <c r="V304" s="2"/>
       <c r="W304" s="2"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -9081,7 +9106,7 @@
       <c r="V305" s="2"/>
       <c r="W305" s="2"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -9106,7 +9131,7 @@
       <c r="V306" s="2"/>
       <c r="W306" s="2"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -9131,7 +9156,7 @@
       <c r="V307" s="2"/>
       <c r="W307" s="2"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -9156,7 +9181,7 @@
       <c r="V308" s="2"/>
       <c r="W308" s="2"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -9181,7 +9206,7 @@
       <c r="V309" s="2"/>
       <c r="W309" s="2"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -9206,7 +9231,7 @@
       <c r="V310" s="2"/>
       <c r="W310" s="2"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -9231,7 +9256,7 @@
       <c r="V311" s="2"/>
       <c r="W311" s="2"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -9256,7 +9281,7 @@
       <c r="V312" s="2"/>
       <c r="W312" s="2"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -9281,7 +9306,7 @@
       <c r="V313" s="2"/>
       <c r="W313" s="2"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -9306,7 +9331,7 @@
       <c r="V314" s="2"/>
       <c r="W314" s="2"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -9331,7 +9356,7 @@
       <c r="V315" s="2"/>
       <c r="W315" s="2"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -9356,7 +9381,7 @@
       <c r="V316" s="2"/>
       <c r="W316" s="2"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -9381,7 +9406,7 @@
       <c r="V317" s="2"/>
       <c r="W317" s="2"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -9406,7 +9431,7 @@
       <c r="V318" s="2"/>
       <c r="W318" s="2"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -9431,7 +9456,7 @@
       <c r="V319" s="2"/>
       <c r="W319" s="2"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -9456,7 +9481,7 @@
       <c r="V320" s="2"/>
       <c r="W320" s="2"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -9481,7 +9506,7 @@
       <c r="V321" s="2"/>
       <c r="W321" s="2"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -9506,7 +9531,7 @@
       <c r="V322" s="2"/>
       <c r="W322" s="2"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -9531,7 +9556,7 @@
       <c r="V323" s="2"/>
       <c r="W323" s="2"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -9556,7 +9581,7 @@
       <c r="V324" s="2"/>
       <c r="W324" s="2"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -9581,7 +9606,7 @@
       <c r="V325" s="2"/>
       <c r="W325" s="2"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -9606,7 +9631,7 @@
       <c r="V326" s="2"/>
       <c r="W326" s="2"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -9631,7 +9656,7 @@
       <c r="V327" s="2"/>
       <c r="W327" s="2"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -9656,7 +9681,7 @@
       <c r="V328" s="2"/>
       <c r="W328" s="2"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -9681,7 +9706,7 @@
       <c r="V329" s="2"/>
       <c r="W329" s="2"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -9706,7 +9731,7 @@
       <c r="V330" s="2"/>
       <c r="W330" s="2"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -9731,7 +9756,7 @@
       <c r="V331" s="2"/>
       <c r="W331" s="2"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -9756,7 +9781,7 @@
       <c r="V332" s="2"/>
       <c r="W332" s="2"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -9781,7 +9806,7 @@
       <c r="V333" s="2"/>
       <c r="W333" s="2"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -9806,7 +9831,7 @@
       <c r="V334" s="2"/>
       <c r="W334" s="2"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -9831,7 +9856,7 @@
       <c r="V335" s="2"/>
       <c r="W335" s="2"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -9856,7 +9881,7 @@
       <c r="V336" s="2"/>
       <c r="W336" s="2"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -9881,7 +9906,7 @@
       <c r="V337" s="2"/>
       <c r="W337" s="2"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -9906,7 +9931,7 @@
       <c r="V338" s="2"/>
       <c r="W338" s="2"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -9931,7 +9956,7 @@
       <c r="V339" s="2"/>
       <c r="W339" s="2"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -9956,7 +9981,7 @@
       <c r="V340" s="2"/>
       <c r="W340" s="2"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -9981,7 +10006,7 @@
       <c r="V341" s="2"/>
       <c r="W341" s="2"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -10006,7 +10031,7 @@
       <c r="V342" s="2"/>
       <c r="W342" s="2"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -10031,7 +10056,7 @@
       <c r="V343" s="2"/>
       <c r="W343" s="2"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -10056,7 +10081,7 @@
       <c r="V344" s="2"/>
       <c r="W344" s="2"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -10081,7 +10106,7 @@
       <c r="V345" s="2"/>
       <c r="W345" s="2"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -10106,7 +10131,7 @@
       <c r="V346" s="2"/>
       <c r="W346" s="2"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -10131,7 +10156,7 @@
       <c r="V347" s="2"/>
       <c r="W347" s="2"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -10156,7 +10181,7 @@
       <c r="V348" s="2"/>
       <c r="W348" s="2"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -10181,7 +10206,7 @@
       <c r="V349" s="2"/>
       <c r="W349" s="2"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -10206,7 +10231,7 @@
       <c r="V350" s="2"/>
       <c r="W350" s="2"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -10231,7 +10256,7 @@
       <c r="V351" s="2"/>
       <c r="W351" s="2"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -10256,7 +10281,7 @@
       <c r="V352" s="2"/>
       <c r="W352" s="2"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -10281,7 +10306,7 @@
       <c r="V353" s="2"/>
       <c r="W353" s="2"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -10306,7 +10331,7 @@
       <c r="V354" s="2"/>
       <c r="W354" s="2"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -10331,7 +10356,7 @@
       <c r="V355" s="2"/>
       <c r="W355" s="2"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -10356,7 +10381,7 @@
       <c r="V356" s="2"/>
       <c r="W356" s="2"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -10381,7 +10406,7 @@
       <c r="V357" s="2"/>
       <c r="W357" s="2"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -10406,7 +10431,7 @@
       <c r="V358" s="2"/>
       <c r="W358" s="2"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -10431,7 +10456,7 @@
       <c r="V359" s="2"/>
       <c r="W359" s="2"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -10456,7 +10481,7 @@
       <c r="V360" s="2"/>
       <c r="W360" s="2"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -10481,7 +10506,7 @@
       <c r="V361" s="2"/>
       <c r="W361" s="2"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -10506,7 +10531,7 @@
       <c r="V362" s="2"/>
       <c r="W362" s="2"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -10531,7 +10556,7 @@
       <c r="V363" s="2"/>
       <c r="W363" s="2"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -10556,7 +10581,7 @@
       <c r="V364" s="2"/>
       <c r="W364" s="2"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -10581,7 +10606,7 @@
       <c r="V365" s="2"/>
       <c r="W365" s="2"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -10606,7 +10631,7 @@
       <c r="V366" s="2"/>
       <c r="W366" s="2"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -10631,7 +10656,7 @@
       <c r="V367" s="2"/>
       <c r="W367" s="2"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -10656,7 +10681,7 @@
       <c r="V368" s="2"/>
       <c r="W368" s="2"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -10681,7 +10706,7 @@
       <c r="V369" s="2"/>
       <c r="W369" s="2"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -10706,7 +10731,7 @@
       <c r="V370" s="2"/>
       <c r="W370" s="2"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -10731,7 +10756,7 @@
       <c r="V371" s="2"/>
       <c r="W371" s="2"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -10756,7 +10781,7 @@
       <c r="V372" s="2"/>
       <c r="W372" s="2"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -10781,7 +10806,7 @@
       <c r="V373" s="2"/>
       <c r="W373" s="2"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -10806,7 +10831,7 @@
       <c r="V374" s="2"/>
       <c r="W374" s="2"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -10831,7 +10856,7 @@
       <c r="V375" s="2"/>
       <c r="W375" s="2"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -10856,7 +10881,7 @@
       <c r="V376" s="2"/>
       <c r="W376" s="2"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -10881,7 +10906,7 @@
       <c r="V377" s="2"/>
       <c r="W377" s="2"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -10906,7 +10931,7 @@
       <c r="V378" s="2"/>
       <c r="W378" s="2"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -10931,7 +10956,7 @@
       <c r="V379" s="2"/>
       <c r="W379" s="2"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -10956,7 +10981,7 @@
       <c r="V380" s="2"/>
       <c r="W380" s="2"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -10981,7 +11006,7 @@
       <c r="V381" s="2"/>
       <c r="W381" s="2"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -11006,7 +11031,7 @@
       <c r="V382" s="2"/>
       <c r="W382" s="2"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -11031,7 +11056,7 @@
       <c r="V383" s="2"/>
       <c r="W383" s="2"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -11056,7 +11081,7 @@
       <c r="V384" s="2"/>
       <c r="W384" s="2"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -11081,7 +11106,7 @@
       <c r="V385" s="2"/>
       <c r="W385" s="2"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -11106,7 +11131,7 @@
       <c r="V386" s="2"/>
       <c r="W386" s="2"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -11131,7 +11156,7 @@
       <c r="V387" s="2"/>
       <c r="W387" s="2"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -11156,7 +11181,7 @@
       <c r="V388" s="2"/>
       <c r="W388" s="2"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -11181,7 +11206,7 @@
       <c r="V389" s="2"/>
       <c r="W389" s="2"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -11206,7 +11231,7 @@
       <c r="V390" s="2"/>
       <c r="W390" s="2"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -11231,7 +11256,7 @@
       <c r="V391" s="2"/>
       <c r="W391" s="2"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -11256,7 +11281,7 @@
       <c r="V392" s="2"/>
       <c r="W392" s="2"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -11281,7 +11306,7 @@
       <c r="V393" s="2"/>
       <c r="W393" s="2"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -11306,7 +11331,7 @@
       <c r="V394" s="2"/>
       <c r="W394" s="2"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -11331,7 +11356,7 @@
       <c r="V395" s="2"/>
       <c r="W395" s="2"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -11356,7 +11381,7 @@
       <c r="V396" s="2"/>
       <c r="W396" s="2"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -11381,7 +11406,7 @@
       <c r="V397" s="2"/>
       <c r="W397" s="2"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -11406,7 +11431,7 @@
       <c r="V398" s="2"/>
       <c r="W398" s="2"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -11431,7 +11456,7 @@
       <c r="V399" s="2"/>
       <c r="W399" s="2"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -11456,7 +11481,7 @@
       <c r="V400" s="2"/>
       <c r="W400" s="2"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -11481,7 +11506,7 @@
       <c r="V401" s="2"/>
       <c r="W401" s="2"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -11506,7 +11531,7 @@
       <c r="V402" s="2"/>
       <c r="W402" s="2"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -11531,7 +11556,7 @@
       <c r="V403" s="2"/>
       <c r="W403" s="2"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -11556,7 +11581,7 @@
       <c r="V404" s="2"/>
       <c r="W404" s="2"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -11581,7 +11606,7 @@
       <c r="V405" s="2"/>
       <c r="W405" s="2"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -11606,7 +11631,7 @@
       <c r="V406" s="2"/>
       <c r="W406" s="2"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -11631,7 +11656,7 @@
       <c r="V407" s="2"/>
       <c r="W407" s="2"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -11656,7 +11681,7 @@
       <c r="V408" s="2"/>
       <c r="W408" s="2"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -11681,7 +11706,7 @@
       <c r="V409" s="2"/>
       <c r="W409" s="2"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -11706,7 +11731,7 @@
       <c r="V410" s="2"/>
       <c r="W410" s="2"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -11731,7 +11756,7 @@
       <c r="V411" s="2"/>
       <c r="W411" s="2"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -11756,7 +11781,7 @@
       <c r="V412" s="2"/>
       <c r="W412" s="2"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -11781,7 +11806,7 @@
       <c r="V413" s="2"/>
       <c r="W413" s="2"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -11806,7 +11831,7 @@
       <c r="V414" s="2"/>
       <c r="W414" s="2"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -11831,7 +11856,7 @@
       <c r="V415" s="2"/>
       <c r="W415" s="2"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -11856,7 +11881,7 @@
       <c r="V416" s="2"/>
       <c r="W416" s="2"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -11881,7 +11906,7 @@
       <c r="V417" s="2"/>
       <c r="W417" s="2"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -11906,7 +11931,7 @@
       <c r="V418" s="2"/>
       <c r="W418" s="2"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -11931,7 +11956,7 @@
       <c r="V419" s="2"/>
       <c r="W419" s="2"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -11956,7 +11981,7 @@
       <c r="V420" s="2"/>
       <c r="W420" s="2"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -11981,7 +12006,7 @@
       <c r="V421" s="2"/>
       <c r="W421" s="2"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -12006,7 +12031,7 @@
       <c r="V422" s="2"/>
       <c r="W422" s="2"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -12031,7 +12056,7 @@
       <c r="V423" s="2"/>
       <c r="W423" s="2"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -12056,7 +12081,7 @@
       <c r="V424" s="2"/>
       <c r="W424" s="2"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -12081,7 +12106,7 @@
       <c r="V425" s="2"/>
       <c r="W425" s="2"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -12106,7 +12131,7 @@
       <c r="V426" s="2"/>
       <c r="W426" s="2"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -12131,7 +12156,7 @@
       <c r="V427" s="2"/>
       <c r="W427" s="2"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -12156,7 +12181,7 @@
       <c r="V428" s="2"/>
       <c r="W428" s="2"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -12181,7 +12206,7 @@
       <c r="V429" s="2"/>
       <c r="W429" s="2"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -12206,7 +12231,7 @@
       <c r="V430" s="2"/>
       <c r="W430" s="2"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -12231,7 +12256,7 @@
       <c r="V431" s="2"/>
       <c r="W431" s="2"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -12256,7 +12281,7 @@
       <c r="V432" s="2"/>
       <c r="W432" s="2"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -12281,7 +12306,7 @@
       <c r="V433" s="2"/>
       <c r="W433" s="2"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -12306,7 +12331,7 @@
       <c r="V434" s="2"/>
       <c r="W434" s="2"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -12331,7 +12356,7 @@
       <c r="V435" s="2"/>
       <c r="W435" s="2"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -12356,7 +12381,7 @@
       <c r="V436" s="2"/>
       <c r="W436" s="2"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -12381,7 +12406,7 @@
       <c r="V437" s="2"/>
       <c r="W437" s="2"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -12406,7 +12431,7 @@
       <c r="V438" s="2"/>
       <c r="W438" s="2"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -12431,7 +12456,7 @@
       <c r="V439" s="2"/>
       <c r="W439" s="2"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -12456,7 +12481,7 @@
       <c r="V440" s="2"/>
       <c r="W440" s="2"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -12481,7 +12506,7 @@
       <c r="V441" s="2"/>
       <c r="W441" s="2"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -12506,7 +12531,7 @@
       <c r="V442" s="2"/>
       <c r="W442" s="2"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -12531,7 +12556,7 @@
       <c r="V443" s="2"/>
       <c r="W443" s="2"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -12556,7 +12581,7 @@
       <c r="V444" s="2"/>
       <c r="W444" s="2"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -12581,7 +12606,7 @@
       <c r="V445" s="2"/>
       <c r="W445" s="2"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -12606,7 +12631,7 @@
       <c r="V446" s="2"/>
       <c r="W446" s="2"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -12631,7 +12656,7 @@
       <c r="V447" s="2"/>
       <c r="W447" s="2"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -12656,7 +12681,7 @@
       <c r="V448" s="2"/>
       <c r="W448" s="2"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -12681,7 +12706,7 @@
       <c r="V449" s="2"/>
       <c r="W449" s="2"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -12706,7 +12731,7 @@
       <c r="V450" s="2"/>
       <c r="W450" s="2"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -12731,7 +12756,7 @@
       <c r="V451" s="2"/>
       <c r="W451" s="2"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -12756,7 +12781,7 @@
       <c r="V452" s="2"/>
       <c r="W452" s="2"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -12781,7 +12806,7 @@
       <c r="V453" s="2"/>
       <c r="W453" s="2"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -12806,7 +12831,7 @@
       <c r="V454" s="2"/>
       <c r="W454" s="2"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -12831,7 +12856,7 @@
       <c r="V455" s="2"/>
       <c r="W455" s="2"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -12856,7 +12881,7 @@
       <c r="V456" s="2"/>
       <c r="W456" s="2"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -12881,7 +12906,7 @@
       <c r="V457" s="2"/>
       <c r="W457" s="2"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -12906,7 +12931,7 @@
       <c r="V458" s="2"/>
       <c r="W458" s="2"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -12931,7 +12956,7 @@
       <c r="V459" s="2"/>
       <c r="W459" s="2"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -12956,7 +12981,7 @@
       <c r="V460" s="2"/>
       <c r="W460" s="2"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -12981,7 +13006,7 @@
       <c r="V461" s="2"/>
       <c r="W461" s="2"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -13006,7 +13031,7 @@
       <c r="V462" s="2"/>
       <c r="W462" s="2"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -13031,7 +13056,7 @@
       <c r="V463" s="2"/>
       <c r="W463" s="2"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -13056,7 +13081,7 @@
       <c r="V464" s="2"/>
       <c r="W464" s="2"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -13081,7 +13106,7 @@
       <c r="V465" s="2"/>
       <c r="W465" s="2"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -13106,7 +13131,7 @@
       <c r="V466" s="2"/>
       <c r="W466" s="2"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -13131,7 +13156,7 @@
       <c r="V467" s="2"/>
       <c r="W467" s="2"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -13156,7 +13181,7 @@
       <c r="V468" s="2"/>
       <c r="W468" s="2"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -13181,7 +13206,7 @@
       <c r="V469" s="2"/>
       <c r="W469" s="2"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -13206,7 +13231,7 @@
       <c r="V470" s="2"/>
       <c r="W470" s="2"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -13231,7 +13256,7 @@
       <c r="V471" s="2"/>
       <c r="W471" s="2"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -13256,7 +13281,7 @@
       <c r="V472" s="2"/>
       <c r="W472" s="2"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -13281,7 +13306,7 @@
       <c r="V473" s="2"/>
       <c r="W473" s="2"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -13306,7 +13331,7 @@
       <c r="V474" s="2"/>
       <c r="W474" s="2"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -13331,7 +13356,7 @@
       <c r="V475" s="2"/>
       <c r="W475" s="2"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -13356,7 +13381,7 @@
       <c r="V476" s="2"/>
       <c r="W476" s="2"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -13381,7 +13406,7 @@
       <c r="V477" s="2"/>
       <c r="W477" s="2"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -13406,7 +13431,7 @@
       <c r="V478" s="2"/>
       <c r="W478" s="2"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -13431,7 +13456,7 @@
       <c r="V479" s="2"/>
       <c r="W479" s="2"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -13456,7 +13481,7 @@
       <c r="V480" s="2"/>
       <c r="W480" s="2"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -13481,7 +13506,7 @@
       <c r="V481" s="2"/>
       <c r="W481" s="2"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -13506,7 +13531,7 @@
       <c r="V482" s="2"/>
       <c r="W482" s="2"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -13531,7 +13556,7 @@
       <c r="V483" s="2"/>
       <c r="W483" s="2"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -13556,7 +13581,7 @@
       <c r="V484" s="2"/>
       <c r="W484" s="2"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -13581,7 +13606,7 @@
       <c r="V485" s="2"/>
       <c r="W485" s="2"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -13606,7 +13631,7 @@
       <c r="V486" s="2"/>
       <c r="W486" s="2"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -13631,7 +13656,7 @@
       <c r="V487" s="2"/>
       <c r="W487" s="2"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -13656,7 +13681,7 @@
       <c r="V488" s="2"/>
       <c r="W488" s="2"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -13681,7 +13706,7 @@
       <c r="V489" s="2"/>
       <c r="W489" s="2"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -13706,7 +13731,7 @@
       <c r="V490" s="2"/>
       <c r="W490" s="2"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -13731,7 +13756,7 @@
       <c r="V491" s="2"/>
       <c r="W491" s="2"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -13756,7 +13781,7 @@
       <c r="V492" s="2"/>
       <c r="W492" s="2"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -13781,7 +13806,7 @@
       <c r="V493" s="2"/>
       <c r="W493" s="2"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -13806,7 +13831,7 @@
       <c r="V494" s="2"/>
       <c r="W494" s="2"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -13831,7 +13856,7 @@
       <c r="V495" s="2"/>
       <c r="W495" s="2"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -13856,7 +13881,7 @@
       <c r="V496" s="2"/>
       <c r="W496" s="2"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -13881,7 +13906,7 @@
       <c r="V497" s="2"/>
       <c r="W497" s="2"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -13906,7 +13931,7 @@
       <c r="V498" s="2"/>
       <c r="W498" s="2"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -13931,7 +13956,7 @@
       <c r="V499" s="2"/>
       <c r="W499" s="2"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -13956,7 +13981,7 @@
       <c r="V500" s="2"/>
       <c r="W500" s="2"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -13981,7 +14006,7 @@
       <c r="V501" s="2"/>
       <c r="W501" s="2"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -14006,7 +14031,7 @@
       <c r="V502" s="2"/>
       <c r="W502" s="2"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -14031,7 +14056,7 @@
       <c r="V503" s="2"/>
       <c r="W503" s="2"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -14056,7 +14081,7 @@
       <c r="V504" s="2"/>
       <c r="W504" s="2"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -14081,7 +14106,7 @@
       <c r="V505" s="2"/>
       <c r="W505" s="2"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -14106,7 +14131,7 @@
       <c r="V506" s="2"/>
       <c r="W506" s="2"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -14131,7 +14156,7 @@
       <c r="V507" s="2"/>
       <c r="W507" s="2"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -14156,7 +14181,7 @@
       <c r="V508" s="2"/>
       <c r="W508" s="2"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -14181,7 +14206,7 @@
       <c r="V509" s="2"/>
       <c r="W509" s="2"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -14206,7 +14231,7 @@
       <c r="V510" s="2"/>
       <c r="W510" s="2"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -14231,7 +14256,7 @@
       <c r="V511" s="2"/>
       <c r="W511" s="2"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -14256,7 +14281,7 @@
       <c r="V512" s="2"/>
       <c r="W512" s="2"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -14281,7 +14306,7 @@
       <c r="V513" s="2"/>
       <c r="W513" s="2"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -14306,7 +14331,7 @@
       <c r="V514" s="2"/>
       <c r="W514" s="2"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -14331,7 +14356,7 @@
       <c r="V515" s="2"/>
       <c r="W515" s="2"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -14356,7 +14381,7 @@
       <c r="V516" s="2"/>
       <c r="W516" s="2"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -14381,7 +14406,7 @@
       <c r="V517" s="2"/>
       <c r="W517" s="2"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -14406,7 +14431,7 @@
       <c r="V518" s="2"/>
       <c r="W518" s="2"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -14431,7 +14456,7 @@
       <c r="V519" s="2"/>
       <c r="W519" s="2"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -14456,7 +14481,7 @@
       <c r="V520" s="2"/>
       <c r="W520" s="2"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -14481,7 +14506,7 @@
       <c r="V521" s="2"/>
       <c r="W521" s="2"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -14506,7 +14531,7 @@
       <c r="V522" s="2"/>
       <c r="W522" s="2"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -14531,7 +14556,7 @@
       <c r="V523" s="2"/>
       <c r="W523" s="2"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -14556,7 +14581,7 @@
       <c r="V524" s="2"/>
       <c r="W524" s="2"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -14581,7 +14606,7 @@
       <c r="V525" s="2"/>
       <c r="W525" s="2"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -14606,7 +14631,7 @@
       <c r="V526" s="2"/>
       <c r="W526" s="2"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -14631,7 +14656,7 @@
       <c r="V527" s="2"/>
       <c r="W527" s="2"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -14656,7 +14681,7 @@
       <c r="V528" s="2"/>
       <c r="W528" s="2"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -14681,7 +14706,7 @@
       <c r="V529" s="2"/>
       <c r="W529" s="2"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -14706,7 +14731,7 @@
       <c r="V530" s="2"/>
       <c r="W530" s="2"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -14731,7 +14756,7 @@
       <c r="V531" s="2"/>
       <c r="W531" s="2"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -14756,7 +14781,7 @@
       <c r="V532" s="2"/>
       <c r="W532" s="2"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -14781,7 +14806,7 @@
       <c r="V533" s="2"/>
       <c r="W533" s="2"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -14806,7 +14831,7 @@
       <c r="V534" s="2"/>
       <c r="W534" s="2"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -14831,7 +14856,7 @@
       <c r="V535" s="2"/>
       <c r="W535" s="2"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -14856,7 +14881,7 @@
       <c r="V536" s="2"/>
       <c r="W536" s="2"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -14881,7 +14906,7 @@
       <c r="V537" s="2"/>
       <c r="W537" s="2"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -14906,7 +14931,7 @@
       <c r="V538" s="2"/>
       <c r="W538" s="2"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -14931,7 +14956,7 @@
       <c r="V539" s="2"/>
       <c r="W539" s="2"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -14956,7 +14981,7 @@
       <c r="V540" s="2"/>
       <c r="W540" s="2"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -14981,7 +15006,7 @@
       <c r="V541" s="2"/>
       <c r="W541" s="2"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -15006,7 +15031,7 @@
       <c r="V542" s="2"/>
       <c r="W542" s="2"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -15031,7 +15056,7 @@
       <c r="V543" s="2"/>
       <c r="W543" s="2"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -15056,7 +15081,7 @@
       <c r="V544" s="2"/>
       <c r="W544" s="2"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -15081,7 +15106,7 @@
       <c r="V545" s="2"/>
       <c r="W545" s="2"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -15106,7 +15131,7 @@
       <c r="V546" s="2"/>
       <c r="W546" s="2"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -15131,7 +15156,7 @@
       <c r="V547" s="2"/>
       <c r="W547" s="2"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -15156,7 +15181,7 @@
       <c r="V548" s="2"/>
       <c r="W548" s="2"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -15181,7 +15206,7 @@
       <c r="V549" s="2"/>
       <c r="W549" s="2"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -15206,7 +15231,7 @@
       <c r="V550" s="2"/>
       <c r="W550" s="2"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -15231,7 +15256,7 @@
       <c r="V551" s="2"/>
       <c r="W551" s="2"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -15256,7 +15281,7 @@
       <c r="V552" s="2"/>
       <c r="W552" s="2"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -15281,7 +15306,7 @@
       <c r="V553" s="2"/>
       <c r="W553" s="2"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -15306,7 +15331,7 @@
       <c r="V554" s="2"/>
       <c r="W554" s="2"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -15331,7 +15356,7 @@
       <c r="V555" s="2"/>
       <c r="W555" s="2"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -15356,7 +15381,7 @@
       <c r="V556" s="2"/>
       <c r="W556" s="2"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -15381,7 +15406,7 @@
       <c r="V557" s="2"/>
       <c r="W557" s="2"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -15406,7 +15431,7 @@
       <c r="V558" s="2"/>
       <c r="W558" s="2"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -15431,7 +15456,7 @@
       <c r="V559" s="2"/>
       <c r="W559" s="2"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -15456,7 +15481,7 @@
       <c r="V560" s="2"/>
       <c r="W560" s="2"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -15481,7 +15506,7 @@
       <c r="V561" s="2"/>
       <c r="W561" s="2"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -15506,7 +15531,7 @@
       <c r="V562" s="2"/>
       <c r="W562" s="2"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -15531,7 +15556,7 @@
       <c r="V563" s="2"/>
       <c r="W563" s="2"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -15556,7 +15581,7 @@
       <c r="V564" s="2"/>
       <c r="W564" s="2"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -15581,7 +15606,7 @@
       <c r="V565" s="2"/>
       <c r="W565" s="2"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -15606,7 +15631,7 @@
       <c r="V566" s="2"/>
       <c r="W566" s="2"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -15631,7 +15656,7 @@
       <c r="V567" s="2"/>
       <c r="W567" s="2"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -15656,7 +15681,7 @@
       <c r="V568" s="2"/>
       <c r="W568" s="2"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -15681,7 +15706,7 @@
       <c r="V569" s="2"/>
       <c r="W569" s="2"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -15706,7 +15731,7 @@
       <c r="V570" s="2"/>
       <c r="W570" s="2"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -15731,7 +15756,7 @@
       <c r="V571" s="2"/>
       <c r="W571" s="2"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -15756,7 +15781,7 @@
       <c r="V572" s="2"/>
       <c r="W572" s="2"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -15781,7 +15806,7 @@
       <c r="V573" s="2"/>
       <c r="W573" s="2"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -15806,7 +15831,7 @@
       <c r="V574" s="2"/>
       <c r="W574" s="2"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -15831,7 +15856,7 @@
       <c r="V575" s="2"/>
       <c r="W575" s="2"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -15856,7 +15881,7 @@
       <c r="V576" s="2"/>
       <c r="W576" s="2"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -15881,7 +15906,7 @@
       <c r="V577" s="2"/>
       <c r="W577" s="2"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -15906,7 +15931,7 @@
       <c r="V578" s="2"/>
       <c r="W578" s="2"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -15931,7 +15956,7 @@
       <c r="V579" s="2"/>
       <c r="W579" s="2"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -15956,7 +15981,7 @@
       <c r="V580" s="2"/>
       <c r="W580" s="2"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -15981,7 +16006,7 @@
       <c r="V581" s="2"/>
       <c r="W581" s="2"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -16006,7 +16031,7 @@
       <c r="V582" s="2"/>
       <c r="W582" s="2"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -16031,7 +16056,7 @@
       <c r="V583" s="2"/>
       <c r="W583" s="2"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -16056,7 +16081,7 @@
       <c r="V584" s="2"/>
       <c r="W584" s="2"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -16081,7 +16106,7 @@
       <c r="V585" s="2"/>
       <c r="W585" s="2"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -16106,7 +16131,7 @@
       <c r="V586" s="2"/>
       <c r="W586" s="2"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -16131,7 +16156,7 @@
       <c r="V587" s="2"/>
       <c r="W587" s="2"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -16156,7 +16181,7 @@
       <c r="V588" s="2"/>
       <c r="W588" s="2"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -16181,7 +16206,7 @@
       <c r="V589" s="2"/>
       <c r="W589" s="2"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -16206,7 +16231,7 @@
       <c r="V590" s="2"/>
       <c r="W590" s="2"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -16231,7 +16256,7 @@
       <c r="V591" s="2"/>
       <c r="W591" s="2"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -16256,7 +16281,7 @@
       <c r="V592" s="2"/>
       <c r="W592" s="2"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -16281,7 +16306,7 @@
       <c r="V593" s="2"/>
       <c r="W593" s="2"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -16306,7 +16331,7 @@
       <c r="V594" s="2"/>
       <c r="W594" s="2"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -16331,7 +16356,7 @@
       <c r="V595" s="2"/>
       <c r="W595" s="2"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -16356,7 +16381,7 @@
       <c r="V596" s="2"/>
       <c r="W596" s="2"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -16381,7 +16406,7 @@
       <c r="V597" s="2"/>
       <c r="W597" s="2"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -16406,7 +16431,7 @@
       <c r="V598" s="2"/>
       <c r="W598" s="2"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -16431,7 +16456,7 @@
       <c r="V599" s="2"/>
       <c r="W599" s="2"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -16456,7 +16481,7 @@
       <c r="V600" s="2"/>
       <c r="W600" s="2"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -16481,7 +16506,7 @@
       <c r="V601" s="2"/>
       <c r="W601" s="2"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -16506,7 +16531,7 @@
       <c r="V602" s="2"/>
       <c r="W602" s="2"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -16531,7 +16556,7 @@
       <c r="V603" s="2"/>
       <c r="W603" s="2"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -16556,7 +16581,7 @@
       <c r="V604" s="2"/>
       <c r="W604" s="2"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -16581,7 +16606,7 @@
       <c r="V605" s="2"/>
       <c r="W605" s="2"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -16606,7 +16631,7 @@
       <c r="V606" s="2"/>
       <c r="W606" s="2"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -16631,7 +16656,7 @@
       <c r="V607" s="2"/>
       <c r="W607" s="2"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -16656,7 +16681,7 @@
       <c r="V608" s="2"/>
       <c r="W608" s="2"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -16681,7 +16706,7 @@
       <c r="V609" s="2"/>
       <c r="W609" s="2"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -16706,7 +16731,7 @@
       <c r="V610" s="2"/>
       <c r="W610" s="2"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -16731,7 +16756,7 @@
       <c r="V611" s="2"/>
       <c r="W611" s="2"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -16756,7 +16781,7 @@
       <c r="V612" s="2"/>
       <c r="W612" s="2"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -16781,7 +16806,7 @@
       <c r="V613" s="2"/>
       <c r="W613" s="2"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -16806,7 +16831,7 @@
       <c r="V614" s="2"/>
       <c r="W614" s="2"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -16831,7 +16856,7 @@
       <c r="V615" s="2"/>
       <c r="W615" s="2"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -16856,7 +16881,7 @@
       <c r="V616" s="2"/>
       <c r="W616" s="2"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -16881,7 +16906,7 @@
       <c r="V617" s="2"/>
       <c r="W617" s="2"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -16906,7 +16931,7 @@
       <c r="V618" s="2"/>
       <c r="W618" s="2"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -16931,7 +16956,7 @@
       <c r="V619" s="2"/>
       <c r="W619" s="2"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -16956,7 +16981,7 @@
       <c r="V620" s="2"/>
       <c r="W620" s="2"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -16981,7 +17006,7 @@
       <c r="V621" s="2"/>
       <c r="W621" s="2"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -17006,7 +17031,7 @@
       <c r="V622" s="2"/>
       <c r="W622" s="2"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -17031,7 +17056,7 @@
       <c r="V623" s="2"/>
       <c r="W623" s="2"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -17056,7 +17081,7 @@
       <c r="V624" s="2"/>
       <c r="W624" s="2"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -17081,7 +17106,7 @@
       <c r="V625" s="2"/>
       <c r="W625" s="2"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -17106,7 +17131,7 @@
       <c r="V626" s="2"/>
       <c r="W626" s="2"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -17131,7 +17156,7 @@
       <c r="V627" s="2"/>
       <c r="W627" s="2"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -17156,7 +17181,7 @@
       <c r="V628" s="2"/>
       <c r="W628" s="2"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -17181,7 +17206,7 @@
       <c r="V629" s="2"/>
       <c r="W629" s="2"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -17206,7 +17231,7 @@
       <c r="V630" s="2"/>
       <c r="W630" s="2"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -17231,7 +17256,7 @@
       <c r="V631" s="2"/>
       <c r="W631" s="2"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -17256,7 +17281,7 @@
       <c r="V632" s="2"/>
       <c r="W632" s="2"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -17281,7 +17306,7 @@
       <c r="V633" s="2"/>
       <c r="W633" s="2"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -17306,7 +17331,7 @@
       <c r="V634" s="2"/>
       <c r="W634" s="2"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -17331,7 +17356,7 @@
       <c r="V635" s="2"/>
       <c r="W635" s="2"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -17356,7 +17381,7 @@
       <c r="V636" s="2"/>
       <c r="W636" s="2"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -17381,7 +17406,7 @@
       <c r="V637" s="2"/>
       <c r="W637" s="2"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -17406,7 +17431,7 @@
       <c r="V638" s="2"/>
       <c r="W638" s="2"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -17431,7 +17456,7 @@
       <c r="V639" s="2"/>
       <c r="W639" s="2"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -17456,7 +17481,7 @@
       <c r="V640" s="2"/>
       <c r="W640" s="2"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -17481,7 +17506,7 @@
       <c r="V641" s="2"/>
       <c r="W641" s="2"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -17506,7 +17531,7 @@
       <c r="V642" s="2"/>
       <c r="W642" s="2"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -17531,7 +17556,7 @@
       <c r="V643" s="2"/>
       <c r="W643" s="2"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -17556,7 +17581,7 @@
       <c r="V644" s="2"/>
       <c r="W644" s="2"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -17581,7 +17606,7 @@
       <c r="V645" s="2"/>
       <c r="W645" s="2"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -17606,7 +17631,7 @@
       <c r="V646" s="2"/>
       <c r="W646" s="2"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -17631,7 +17656,7 @@
       <c r="V647" s="2"/>
       <c r="W647" s="2"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -17656,7 +17681,7 @@
       <c r="V648" s="2"/>
       <c r="W648" s="2"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -17681,7 +17706,7 @@
       <c r="V649" s="2"/>
       <c r="W649" s="2"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -17706,7 +17731,7 @@
       <c r="V650" s="2"/>
       <c r="W650" s="2"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -17731,7 +17756,7 @@
       <c r="V651" s="2"/>
       <c r="W651" s="2"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -17756,7 +17781,7 @@
       <c r="V652" s="2"/>
       <c r="W652" s="2"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -17781,7 +17806,7 @@
       <c r="V653" s="2"/>
       <c r="W653" s="2"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -17806,7 +17831,7 @@
       <c r="V654" s="2"/>
       <c r="W654" s="2"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -17831,7 +17856,7 @@
       <c r="V655" s="2"/>
       <c r="W655" s="2"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -17856,7 +17881,7 @@
       <c r="V656" s="2"/>
       <c r="W656" s="2"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -17881,7 +17906,7 @@
       <c r="V657" s="2"/>
       <c r="W657" s="2"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -17906,7 +17931,7 @@
       <c r="V658" s="2"/>
       <c r="W658" s="2"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -17931,7 +17956,7 @@
       <c r="V659" s="2"/>
       <c r="W659" s="2"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -17956,7 +17981,7 @@
       <c r="V660" s="2"/>
       <c r="W660" s="2"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -17981,7 +18006,7 @@
       <c r="V661" s="2"/>
       <c r="W661" s="2"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -18006,7 +18031,7 @@
       <c r="V662" s="2"/>
       <c r="W662" s="2"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -18031,7 +18056,7 @@
       <c r="V663" s="2"/>
       <c r="W663" s="2"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -18056,7 +18081,7 @@
       <c r="V664" s="2"/>
       <c r="W664" s="2"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -18081,7 +18106,7 @@
       <c r="V665" s="2"/>
       <c r="W665" s="2"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -18106,7 +18131,7 @@
       <c r="V666" s="2"/>
       <c r="W666" s="2"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -18131,7 +18156,7 @@
       <c r="V667" s="2"/>
       <c r="W667" s="2"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -18156,7 +18181,7 @@
       <c r="V668" s="2"/>
       <c r="W668" s="2"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -18181,7 +18206,7 @@
       <c r="V669" s="2"/>
       <c r="W669" s="2"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -18206,7 +18231,7 @@
       <c r="V670" s="2"/>
       <c r="W670" s="2"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -18231,7 +18256,7 @@
       <c r="V671" s="2"/>
       <c r="W671" s="2"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -18256,7 +18281,7 @@
       <c r="V672" s="2"/>
       <c r="W672" s="2"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -18281,7 +18306,7 @@
       <c r="V673" s="2"/>
       <c r="W673" s="2"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -18306,7 +18331,7 @@
       <c r="V674" s="2"/>
       <c r="W674" s="2"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -18331,7 +18356,7 @@
       <c r="V675" s="2"/>
       <c r="W675" s="2"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -18356,7 +18381,7 @@
       <c r="V676" s="2"/>
       <c r="W676" s="2"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -18381,7 +18406,7 @@
       <c r="V677" s="2"/>
       <c r="W677" s="2"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -18406,7 +18431,7 @@
       <c r="V678" s="2"/>
       <c r="W678" s="2"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -18431,7 +18456,7 @@
       <c r="V679" s="2"/>
       <c r="W679" s="2"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -18456,7 +18481,7 @@
       <c r="V680" s="2"/>
       <c r="W680" s="2"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -18481,7 +18506,7 @@
       <c r="V681" s="2"/>
       <c r="W681" s="2"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -18506,7 +18531,7 @@
       <c r="V682" s="2"/>
       <c r="W682" s="2"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -18531,7 +18556,7 @@
       <c r="V683" s="2"/>
       <c r="W683" s="2"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -18556,7 +18581,7 @@
       <c r="V684" s="2"/>
       <c r="W684" s="2"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -18581,7 +18606,7 @@
       <c r="V685" s="2"/>
       <c r="W685" s="2"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -18606,7 +18631,7 @@
       <c r="V686" s="2"/>
       <c r="W686" s="2"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -18631,7 +18656,7 @@
       <c r="V687" s="2"/>
       <c r="W687" s="2"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -18656,7 +18681,7 @@
       <c r="V688" s="2"/>
       <c r="W688" s="2"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -18681,7 +18706,7 @@
       <c r="V689" s="2"/>
       <c r="W689" s="2"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -18706,7 +18731,7 @@
       <c r="V690" s="2"/>
       <c r="W690" s="2"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -18731,7 +18756,7 @@
       <c r="V691" s="2"/>
       <c r="W691" s="2"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -18756,7 +18781,7 @@
       <c r="V692" s="2"/>
       <c r="W692" s="2"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -18781,7 +18806,7 @@
       <c r="V693" s="2"/>
       <c r="W693" s="2"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -18806,7 +18831,7 @@
       <c r="V694" s="2"/>
       <c r="W694" s="2"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -18831,7 +18856,7 @@
       <c r="V695" s="2"/>
       <c r="W695" s="2"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -18856,7 +18881,7 @@
       <c r="V696" s="2"/>
       <c r="W696" s="2"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -18881,7 +18906,7 @@
       <c r="V697" s="2"/>
       <c r="W697" s="2"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -18906,7 +18931,7 @@
       <c r="V698" s="2"/>
       <c r="W698" s="2"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -18931,7 +18956,7 @@
       <c r="V699" s="2"/>
       <c r="W699" s="2"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -18956,7 +18981,7 @@
       <c r="V700" s="2"/>
       <c r="W700" s="2"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -18981,7 +19006,7 @@
       <c r="V701" s="2"/>
       <c r="W701" s="2"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -19006,7 +19031,7 @@
       <c r="V702" s="2"/>
       <c r="W702" s="2"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -19031,7 +19056,7 @@
       <c r="V703" s="2"/>
       <c r="W703" s="2"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -19056,7 +19081,7 @@
       <c r="V704" s="2"/>
       <c r="W704" s="2"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -19081,7 +19106,7 @@
       <c r="V705" s="2"/>
       <c r="W705" s="2"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -19106,7 +19131,7 @@
       <c r="V706" s="2"/>
       <c r="W706" s="2"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -19131,7 +19156,7 @@
       <c r="V707" s="2"/>
       <c r="W707" s="2"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -19156,7 +19181,7 @@
       <c r="V708" s="2"/>
       <c r="W708" s="2"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -19181,7 +19206,7 @@
       <c r="V709" s="2"/>
       <c r="W709" s="2"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -19206,7 +19231,7 @@
       <c r="V710" s="2"/>
       <c r="W710" s="2"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -19231,7 +19256,7 @@
       <c r="V711" s="2"/>
       <c r="W711" s="2"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -19256,7 +19281,7 @@
       <c r="V712" s="2"/>
       <c r="W712" s="2"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -19281,7 +19306,7 @@
       <c r="V713" s="2"/>
       <c r="W713" s="2"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -19306,7 +19331,7 @@
       <c r="V714" s="2"/>
       <c r="W714" s="2"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -19331,7 +19356,7 @@
       <c r="V715" s="2"/>
       <c r="W715" s="2"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -19356,7 +19381,7 @@
       <c r="V716" s="2"/>
       <c r="W716" s="2"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -19381,7 +19406,7 @@
       <c r="V717" s="2"/>
       <c r="W717" s="2"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -19406,7 +19431,7 @@
       <c r="V718" s="2"/>
       <c r="W718" s="2"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -19431,7 +19456,7 @@
       <c r="V719" s="2"/>
       <c r="W719" s="2"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -19456,7 +19481,7 @@
       <c r="V720" s="2"/>
       <c r="W720" s="2"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -19481,7 +19506,7 @@
       <c r="V721" s="2"/>
       <c r="W721" s="2"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -19506,7 +19531,7 @@
       <c r="V722" s="2"/>
       <c r="W722" s="2"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -19532,21 +19557,24 @@
       <c r="W723" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D281"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="A282" sqref="A282"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -19560,7 +19588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -19574,7 +19602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -19588,7 +19616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -19602,7 +19630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -19616,7 +19644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -19630,7 +19658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -19644,7 +19672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -19658,7 +19686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
@@ -19672,13 +19700,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -19692,7 +19720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -19706,7 +19734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -19720,7 +19748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -19734,7 +19762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
@@ -19748,7 +19776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -19762,7 +19790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -19776,7 +19804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -19790,7 +19818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -19804,7 +19832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
@@ -19818,7 +19846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
@@ -19832,7 +19860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
@@ -19846,7 +19874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -19860,7 +19888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>60</v>
       </c>
@@ -19874,7 +19902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>61</v>
       </c>
@@ -19888,7 +19916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
@@ -19902,7 +19930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
@@ -19916,7 +19944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>65</v>
       </c>
@@ -19930,7 +19958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>67</v>
       </c>
@@ -19944,7 +19972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>68</v>
       </c>
@@ -19958,7 +19986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>69</v>
       </c>
@@ -19972,7 +20000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
@@ -19986,7 +20014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>72</v>
       </c>
@@ -20000,7 +20028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
@@ -20014,7 +20042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>75</v>
       </c>
@@ -20028,7 +20056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>78</v>
       </c>
@@ -20042,7 +20070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
@@ -20056,7 +20084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>81</v>
       </c>
@@ -20070,7 +20098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>82</v>
       </c>
@@ -20084,7 +20112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
@@ -20098,7 +20126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>84</v>
       </c>
@@ -20112,7 +20140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>85</v>
       </c>
@@ -20126,7 +20154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>86</v>
       </c>
@@ -20140,7 +20168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>87</v>
       </c>
@@ -20154,7 +20182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>88</v>
       </c>
@@ -20168,7 +20196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>91</v>
       </c>
@@ -20182,7 +20210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
@@ -20196,7 +20224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>93</v>
       </c>
@@ -20210,7 +20238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>94</v>
       </c>
@@ -20224,7 +20252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
@@ -20238,7 +20266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>96</v>
       </c>
@@ -20252,7 +20280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>97</v>
       </c>
@@ -20266,7 +20294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>98</v>
       </c>
@@ -20280,7 +20308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>99</v>
       </c>
@@ -20294,7 +20322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>100</v>
       </c>
@@ -20308,7 +20336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>101</v>
       </c>
@@ -20322,7 +20350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>102</v>
       </c>
@@ -20336,7 +20364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>103</v>
       </c>
@@ -20350,7 +20378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>104</v>
       </c>
@@ -20364,7 +20392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>105</v>
       </c>
@@ -20378,7 +20406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>106</v>
       </c>
@@ -20392,7 +20420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>107</v>
       </c>
@@ -20406,7 +20434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>108</v>
       </c>
@@ -20420,7 +20448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>109</v>
       </c>
@@ -20434,7 +20462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>110</v>
       </c>
@@ -20448,7 +20476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>111</v>
       </c>
@@ -20462,7 +20490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>112</v>
       </c>
@@ -20476,7 +20504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>113</v>
       </c>
@@ -20490,7 +20518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>114</v>
       </c>
@@ -20504,7 +20532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>115</v>
       </c>
@@ -20518,7 +20546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>116</v>
       </c>
@@ -20532,7 +20560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>117</v>
       </c>
@@ -20546,7 +20574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>118</v>
       </c>
@@ -20560,7 +20588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>119</v>
       </c>
@@ -20574,7 +20602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>120</v>
       </c>
@@ -20588,7 +20616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>121</v>
       </c>
@@ -20602,7 +20630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>122</v>
       </c>
@@ -20616,7 +20644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>123</v>
       </c>
@@ -20630,7 +20658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>124</v>
       </c>
@@ -20644,7 +20672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>125</v>
       </c>
@@ -20658,7 +20686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>126</v>
       </c>
@@ -20672,7 +20700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>127</v>
       </c>
@@ -20686,7 +20714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>128</v>
       </c>
@@ -20700,7 +20728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>129</v>
       </c>
@@ -20714,7 +20742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>130</v>
       </c>
@@ -20728,7 +20756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>132</v>
       </c>
@@ -20742,7 +20770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>133</v>
       </c>
@@ -20756,7 +20784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>135</v>
       </c>
@@ -20770,7 +20798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>136</v>
       </c>
@@ -20784,7 +20812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>138</v>
       </c>
@@ -20798,7 +20826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>140</v>
       </c>
@@ -20812,7 +20840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>141</v>
       </c>
@@ -20826,7 +20854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>142</v>
       </c>
@@ -20840,7 +20868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>143</v>
       </c>
@@ -20854,7 +20882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>144</v>
       </c>
@@ -20868,7 +20896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>145</v>
       </c>
@@ -20882,7 +20910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>146</v>
       </c>
@@ -20896,7 +20924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>148</v>
       </c>
@@ -20910,7 +20938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>149</v>
       </c>
@@ -20924,7 +20952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>150</v>
       </c>
@@ -20938,7 +20966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>151</v>
       </c>
@@ -20952,7 +20980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>152</v>
       </c>
@@ -20966,7 +20994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>153</v>
       </c>
@@ -20980,7 +21008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>154</v>
       </c>
@@ -20994,7 +21022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>155</v>
       </c>
@@ -21008,7 +21036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>156</v>
       </c>
@@ -21022,7 +21050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>157</v>
       </c>
@@ -21036,7 +21064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>158</v>
       </c>
@@ -21050,7 +21078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>159</v>
       </c>
@@ -21064,7 +21092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>160</v>
       </c>
@@ -21078,7 +21106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>161</v>
       </c>
@@ -21092,7 +21120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>162</v>
       </c>
@@ -21106,7 +21134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>163</v>
       </c>
@@ -21120,7 +21148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>164</v>
       </c>
@@ -21134,7 +21162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>165</v>
       </c>
@@ -21148,7 +21176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>166</v>
       </c>
@@ -21162,7 +21190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>167</v>
       </c>
@@ -21176,7 +21204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>168</v>
       </c>
@@ -21190,7 +21218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>169</v>
       </c>
@@ -21204,7 +21232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>170</v>
       </c>
@@ -21218,7 +21246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>171</v>
       </c>
@@ -21232,7 +21260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>172</v>
       </c>
@@ -21246,7 +21274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>173</v>
       </c>
@@ -21260,7 +21288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>174</v>
       </c>
@@ -21274,7 +21302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>176</v>
       </c>
@@ -21288,7 +21316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>177</v>
       </c>
@@ -21302,7 +21330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>178</v>
       </c>
@@ -21316,7 +21344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>179</v>
       </c>
@@ -21330,7 +21358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>180</v>
       </c>
@@ -21344,7 +21372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>181</v>
       </c>
@@ -21358,7 +21386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>182</v>
       </c>
@@ -21372,7 +21400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>183</v>
       </c>
@@ -21386,7 +21414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>184</v>
       </c>
@@ -21400,7 +21428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>185</v>
       </c>
@@ -21414,7 +21442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>186</v>
       </c>
@@ -21428,7 +21456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>187</v>
       </c>
@@ -21442,7 +21470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>188</v>
       </c>
@@ -21456,7 +21484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>189</v>
       </c>
@@ -21470,7 +21498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>190</v>
       </c>
@@ -21484,7 +21512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>191</v>
       </c>
@@ -21498,7 +21526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>192</v>
       </c>
@@ -21512,7 +21540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>193</v>
       </c>
@@ -21526,7 +21554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>194</v>
       </c>
@@ -21540,7 +21568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>195</v>
       </c>
@@ -21554,7 +21582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>196</v>
       </c>
@@ -21568,7 +21596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>198</v>
       </c>
@@ -21582,7 +21610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>199</v>
       </c>
@@ -21596,7 +21624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>200</v>
       </c>
@@ -21610,7 +21638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>201</v>
       </c>
@@ -21624,7 +21652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>203</v>
       </c>
@@ -21638,7 +21666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>204</v>
       </c>
@@ -21652,7 +21680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>205</v>
       </c>
@@ -21666,7 +21694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>206</v>
       </c>
@@ -21680,7 +21708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>207</v>
       </c>
@@ -21694,7 +21722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>208</v>
       </c>
@@ -21708,7 +21736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>209</v>
       </c>
@@ -21722,7 +21750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>210</v>
       </c>
@@ -21736,7 +21764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>211</v>
       </c>
@@ -21750,7 +21778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>212</v>
       </c>
@@ -21764,7 +21792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>213</v>
       </c>
@@ -21778,7 +21806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>214</v>
       </c>
@@ -21792,7 +21820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>215</v>
       </c>
@@ -21806,7 +21834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>216</v>
       </c>
@@ -21820,7 +21848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>217</v>
       </c>
@@ -21834,7 +21862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>218</v>
       </c>
@@ -21848,7 +21876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>219</v>
       </c>
@@ -21862,7 +21890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>220</v>
       </c>
@@ -21876,7 +21904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>221</v>
       </c>
@@ -21890,7 +21918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>222</v>
       </c>
@@ -21904,7 +21932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>223</v>
       </c>
@@ -21918,7 +21946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>224</v>
       </c>
@@ -21932,7 +21960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>225</v>
       </c>
@@ -21946,7 +21974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>226</v>
       </c>
@@ -21960,7 +21988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>227</v>
       </c>
@@ -21974,7 +22002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>228</v>
       </c>
@@ -21988,7 +22016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>230</v>
       </c>
@@ -22002,7 +22030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>231</v>
       </c>
@@ -22016,7 +22044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>232</v>
       </c>
@@ -22030,7 +22058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>234</v>
       </c>
@@ -22044,7 +22072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>235</v>
       </c>
@@ -22058,7 +22086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>236</v>
       </c>
@@ -22072,7 +22100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>237</v>
       </c>
@@ -22086,7 +22114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>238</v>
       </c>
@@ -22100,7 +22128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>240</v>
       </c>
@@ -22114,7 +22142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>241</v>
       </c>
@@ -22128,7 +22156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>242</v>
       </c>
@@ -22142,7 +22170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>243</v>
       </c>
@@ -22156,7 +22184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>244</v>
       </c>
@@ -22170,7 +22198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>245</v>
       </c>
@@ -22184,7 +22212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>246</v>
       </c>
@@ -22198,7 +22226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>247</v>
       </c>
@@ -22212,7 +22240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>248</v>
       </c>
@@ -22226,7 +22254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>249</v>
       </c>
@@ -22240,7 +22268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>250</v>
       </c>
@@ -22254,7 +22282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>251</v>
       </c>
@@ -22268,7 +22296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>252</v>
       </c>
@@ -22282,7 +22310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>253</v>
       </c>
@@ -22296,7 +22324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>256</v>
       </c>
@@ -22310,7 +22338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>257</v>
       </c>
@@ -22324,7 +22352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>258</v>
       </c>
@@ -22338,7 +22366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>259</v>
       </c>
@@ -22352,7 +22380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>260</v>
       </c>
@@ -22366,7 +22394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>261</v>
       </c>
@@ -22380,7 +22408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>262</v>
       </c>
@@ -22394,7 +22422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>264</v>
       </c>
@@ -22408,7 +22436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>265</v>
       </c>
@@ -22422,7 +22450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>266</v>
       </c>
@@ -22436,7 +22464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>267</v>
       </c>
@@ -22450,7 +22478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>268</v>
       </c>
@@ -22464,7 +22492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>269</v>
       </c>
@@ -22478,7 +22506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>270</v>
       </c>
@@ -22492,7 +22520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>271</v>
       </c>
@@ -22506,7 +22534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>272</v>
       </c>
@@ -22520,7 +22548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>273</v>
       </c>
@@ -22534,7 +22562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>274</v>
       </c>
@@ -22548,7 +22576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>275</v>
       </c>
@@ -22562,7 +22590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>276</v>
       </c>
@@ -22576,7 +22604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>277</v>
       </c>
@@ -22590,7 +22618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>278</v>
       </c>
@@ -22604,7 +22632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>279</v>
       </c>
@@ -22618,7 +22646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>280</v>
       </c>
@@ -22632,7 +22660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>281</v>
       </c>
@@ -22646,7 +22674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>283</v>
       </c>
@@ -22660,7 +22688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>284</v>
       </c>
@@ -22674,7 +22702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>285</v>
       </c>
@@ -22688,7 +22716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>286</v>
       </c>
@@ -22702,7 +22730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>287</v>
       </c>
@@ -22716,7 +22744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>288</v>
       </c>
@@ -22730,7 +22758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>289</v>
       </c>
@@ -22744,7 +22772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>290</v>
       </c>
@@ -22758,7 +22786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>291</v>
       </c>
@@ -22772,7 +22800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>292</v>
       </c>
@@ -22786,7 +22814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>293</v>
       </c>
@@ -22800,7 +22828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>294</v>
       </c>
@@ -22814,7 +22842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>295</v>
       </c>
@@ -22828,7 +22856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>296</v>
       </c>
@@ -22842,7 +22870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>297</v>
       </c>
@@ -22856,7 +22884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>298</v>
       </c>
@@ -22870,7 +22898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>299</v>
       </c>
@@ -22884,7 +22912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>300</v>
       </c>
@@ -22898,7 +22926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>301</v>
       </c>
@@ -22912,7 +22940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>302</v>
       </c>
@@ -22926,7 +22954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>303</v>
       </c>
@@ -22940,7 +22968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>304</v>
       </c>
@@ -22954,7 +22982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>305</v>
       </c>
@@ -22968,7 +22996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>306</v>
       </c>
@@ -22982,7 +23010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>307</v>
       </c>
@@ -22996,7 +23024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>309</v>
       </c>
@@ -23010,7 +23038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>311</v>
       </c>
@@ -23024,7 +23052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>312</v>
       </c>
@@ -23038,7 +23066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>314</v>
       </c>
@@ -23052,7 +23080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>315</v>
       </c>
@@ -23066,7 +23094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>316</v>
       </c>
@@ -23080,7 +23108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>317</v>
       </c>
@@ -23094,7 +23122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>318</v>
       </c>
@@ -23108,7 +23136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>319</v>
       </c>
@@ -23122,7 +23150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>320</v>
       </c>
@@ -23136,7 +23164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>321</v>
       </c>
@@ -23150,7 +23178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>322</v>
       </c>
@@ -23164,7 +23192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>323</v>
       </c>
@@ -23178,7 +23206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>324</v>
       </c>
@@ -23192,7 +23220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>325</v>
       </c>
@@ -23206,7 +23234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>326</v>
       </c>
@@ -23220,7 +23248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>327</v>
       </c>
@@ -23234,7 +23262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>328</v>
       </c>
@@ -23248,7 +23276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>329</v>
       </c>
@@ -23262,7 +23290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>330</v>
       </c>
@@ -23276,7 +23304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>331</v>
       </c>
@@ -23290,7 +23318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>333</v>
       </c>
@@ -23304,7 +23332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>334</v>
       </c>
@@ -23318,7 +23346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>335</v>
       </c>
@@ -23332,7 +23360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>336</v>
       </c>
@@ -23346,7 +23374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>337</v>
       </c>
@@ -23360,7 +23388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>338</v>
       </c>
@@ -23374,7 +23402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>339</v>
       </c>
@@ -23388,7 +23416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>340</v>
       </c>
@@ -23402,7 +23430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>341</v>
       </c>
@@ -23416,7 +23444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>342</v>
       </c>
@@ -23430,7 +23458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>344</v>
       </c>
@@ -23444,7 +23472,35 @@
         <v>7</v>
       </c>
     </row>
+    <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/treinamento_teste_produto.xlsx
+++ b/treinamento_teste_produto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leandro.souza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77FB534-E970-4A3E-B666-BED26567BFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A40818-43AD-4C4D-A82F-080A1F073B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19569,12 +19569,12 @@
   <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="A282" sqref="A282"/>
+      <selection activeCell="E284" sqref="E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -19588,7 +19588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -19602,7 +19602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -19630,7 +19630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
@@ -19700,13 +19700,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -19720,7 +19720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -19762,7 +19762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -19790,7 +19790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -19818,7 +19818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -19832,7 +19832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
@@ -19860,7 +19860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
@@ -19874,7 +19874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>60</v>
       </c>
@@ -19902,7 +19902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>61</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>65</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>67</v>
       </c>
@@ -19972,7 +19972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>68</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>69</v>
       </c>
@@ -20000,7 +20000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
@@ -20014,7 +20014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>72</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>75</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>78</v>
       </c>
@@ -20070,7 +20070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>81</v>
       </c>
@@ -20098,7 +20098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>82</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
@@ -20126,7 +20126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>84</v>
       </c>
@@ -20140,7 +20140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>85</v>
       </c>
@@ -20154,7 +20154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>86</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>87</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>88</v>
       </c>
@@ -20196,7 +20196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>91</v>
       </c>
@@ -20210,7 +20210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
@@ -20224,7 +20224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>93</v>
       </c>
@@ -20238,7 +20238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>94</v>
       </c>
@@ -20252,7 +20252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>96</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>97</v>
       </c>
@@ -20294,7 +20294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>98</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>99</v>
       </c>
@@ -20322,7 +20322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>100</v>
       </c>
@@ -20336,7 +20336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>101</v>
       </c>
@@ -20350,7 +20350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>102</v>
       </c>
@@ -20364,7 +20364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>103</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>104</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>105</v>
       </c>
@@ -20406,7 +20406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>106</v>
       </c>
@@ -20420,7 +20420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>107</v>
       </c>
@@ -20434,7 +20434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>108</v>
       </c>
@@ -20448,7 +20448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>109</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>110</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>111</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>112</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>113</v>
       </c>
@@ -20518,7 +20518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>114</v>
       </c>
@@ -20532,7 +20532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>115</v>
       </c>
@@ -20546,7 +20546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>116</v>
       </c>
@@ -20560,7 +20560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>117</v>
       </c>
@@ -20574,7 +20574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>118</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>119</v>
       </c>
@@ -20602,7 +20602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>120</v>
       </c>
@@ -20616,7 +20616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>121</v>
       </c>
@@ -20630,7 +20630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>122</v>
       </c>
@@ -20644,7 +20644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>123</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>124</v>
       </c>
@@ -20672,7 +20672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>125</v>
       </c>
@@ -20686,7 +20686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>126</v>
       </c>
@@ -20700,7 +20700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>127</v>
       </c>
@@ -20714,7 +20714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>128</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>129</v>
       </c>
@@ -20742,7 +20742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>130</v>
       </c>
@@ -20756,7 +20756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>132</v>
       </c>
@@ -20770,7 +20770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>133</v>
       </c>
@@ -20784,7 +20784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>135</v>
       </c>
@@ -20798,7 +20798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>136</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>138</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>140</v>
       </c>
@@ -20840,7 +20840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>141</v>
       </c>
@@ -20854,7 +20854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>142</v>
       </c>
@@ -20868,7 +20868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>143</v>
       </c>
@@ -20882,7 +20882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>144</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>145</v>
       </c>
@@ -20910,7 +20910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>146</v>
       </c>
@@ -20924,7 +20924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>148</v>
       </c>
@@ -20938,7 +20938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>149</v>
       </c>
@@ -20952,7 +20952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>150</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>151</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>152</v>
       </c>
@@ -20994,7 +20994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>153</v>
       </c>
@@ -21008,7 +21008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>154</v>
       </c>
@@ -21022,7 +21022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>155</v>
       </c>
@@ -21036,7 +21036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>156</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>157</v>
       </c>
@@ -21064,7 +21064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>158</v>
       </c>
@@ -21078,7 +21078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>159</v>
       </c>
@@ -21092,7 +21092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>160</v>
       </c>
@@ -21106,7 +21106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>161</v>
       </c>
@@ -21120,7 +21120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>162</v>
       </c>
@@ -21134,7 +21134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>163</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>164</v>
       </c>
@@ -21162,7 +21162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>165</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>166</v>
       </c>
@@ -21190,7 +21190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>167</v>
       </c>
@@ -21204,7 +21204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>168</v>
       </c>
@@ -21218,7 +21218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>169</v>
       </c>
@@ -21232,7 +21232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>170</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>171</v>
       </c>
@@ -21260,7 +21260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>172</v>
       </c>
@@ -21274,7 +21274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>173</v>
       </c>
@@ -21288,7 +21288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>174</v>
       </c>
@@ -21302,7 +21302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>176</v>
       </c>
@@ -21316,7 +21316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>177</v>
       </c>
@@ -21330,7 +21330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>178</v>
       </c>
@@ -21344,7 +21344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>179</v>
       </c>
@@ -21358,7 +21358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>180</v>
       </c>
@@ -21372,7 +21372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>181</v>
       </c>
@@ -21386,7 +21386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>182</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>183</v>
       </c>
@@ -21414,7 +21414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>184</v>
       </c>
@@ -21428,7 +21428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>185</v>
       </c>
@@ -21442,7 +21442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>186</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>187</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>188</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>189</v>
       </c>
@@ -21498,7 +21498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>190</v>
       </c>
@@ -21512,7 +21512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>191</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>192</v>
       </c>
@@ -21540,7 +21540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>193</v>
       </c>
@@ -21554,7 +21554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>194</v>
       </c>
@@ -21568,7 +21568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>195</v>
       </c>
@@ -21582,7 +21582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>196</v>
       </c>
@@ -21596,7 +21596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>198</v>
       </c>
@@ -21610,7 +21610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>199</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>200</v>
       </c>
@@ -21638,7 +21638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>201</v>
       </c>
@@ -21652,7 +21652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>203</v>
       </c>
@@ -21666,7 +21666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>204</v>
       </c>
@@ -21680,7 +21680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>205</v>
       </c>
@@ -21694,7 +21694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>206</v>
       </c>
@@ -21708,7 +21708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>207</v>
       </c>
@@ -21722,7 +21722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>208</v>
       </c>
@@ -21736,7 +21736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>209</v>
       </c>
@@ -21750,7 +21750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>210</v>
       </c>
@@ -21764,7 +21764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>211</v>
       </c>
@@ -21778,7 +21778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>212</v>
       </c>
@@ -21792,7 +21792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>213</v>
       </c>
@@ -21806,7 +21806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>214</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>215</v>
       </c>
@@ -21834,7 +21834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>216</v>
       </c>
@@ -21848,7 +21848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>217</v>
       </c>
@@ -21862,7 +21862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>218</v>
       </c>
@@ -21876,7 +21876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>219</v>
       </c>
@@ -21890,7 +21890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>220</v>
       </c>
@@ -21904,7 +21904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>221</v>
       </c>
@@ -21918,7 +21918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>222</v>
       </c>
@@ -21932,7 +21932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>223</v>
       </c>
@@ -21946,7 +21946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>224</v>
       </c>
@@ -21960,7 +21960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>225</v>
       </c>
@@ -21974,7 +21974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>226</v>
       </c>
@@ -21988,7 +21988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>227</v>
       </c>
@@ -22002,7 +22002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>228</v>
       </c>
@@ -22016,7 +22016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>230</v>
       </c>
@@ -22030,7 +22030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>231</v>
       </c>
@@ -22044,7 +22044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>232</v>
       </c>
@@ -22058,7 +22058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>234</v>
       </c>
@@ -22072,7 +22072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>235</v>
       </c>
@@ -22086,7 +22086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>236</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>237</v>
       </c>
@@ -22114,7 +22114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>238</v>
       </c>
@@ -22128,7 +22128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>240</v>
       </c>
@@ -22142,7 +22142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>241</v>
       </c>
@@ -22156,7 +22156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>242</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>243</v>
       </c>
@@ -22184,7 +22184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>244</v>
       </c>
@@ -22198,7 +22198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>245</v>
       </c>
@@ -22212,7 +22212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>246</v>
       </c>
@@ -22226,7 +22226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>247</v>
       </c>
@@ -22240,7 +22240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>248</v>
       </c>
@@ -22254,7 +22254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>249</v>
       </c>
@@ -22268,7 +22268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>250</v>
       </c>
@@ -22282,7 +22282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>251</v>
       </c>
@@ -22296,7 +22296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>252</v>
       </c>
@@ -22310,7 +22310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>253</v>
       </c>
@@ -22324,7 +22324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>256</v>
       </c>
@@ -22338,7 +22338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>257</v>
       </c>
@@ -22352,7 +22352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>258</v>
       </c>
@@ -22366,7 +22366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>259</v>
       </c>
@@ -22380,7 +22380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>260</v>
       </c>
@@ -22394,7 +22394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>261</v>
       </c>
@@ -22408,7 +22408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>262</v>
       </c>
@@ -22422,7 +22422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>264</v>
       </c>
@@ -22436,7 +22436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>265</v>
       </c>
@@ -22450,7 +22450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>266</v>
       </c>
@@ -22464,7 +22464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>267</v>
       </c>
@@ -22478,7 +22478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>268</v>
       </c>
@@ -22492,7 +22492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>269</v>
       </c>
@@ -22506,7 +22506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>270</v>
       </c>
@@ -22520,7 +22520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>271</v>
       </c>
@@ -22534,7 +22534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>272</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>273</v>
       </c>
@@ -22562,7 +22562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>274</v>
       </c>
@@ -22576,7 +22576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>275</v>
       </c>
@@ -22590,7 +22590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>276</v>
       </c>
@@ -22604,7 +22604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>277</v>
       </c>
@@ -22618,7 +22618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>278</v>
       </c>
@@ -22632,7 +22632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>279</v>
       </c>
@@ -22646,7 +22646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>280</v>
       </c>
@@ -22660,7 +22660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>281</v>
       </c>
@@ -22674,7 +22674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>283</v>
       </c>
@@ -22688,7 +22688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>284</v>
       </c>
@@ -22702,7 +22702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>285</v>
       </c>
@@ -22716,7 +22716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>286</v>
       </c>
@@ -22730,7 +22730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>287</v>
       </c>
@@ -22744,7 +22744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>288</v>
       </c>
@@ -22758,7 +22758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>289</v>
       </c>
@@ -22772,7 +22772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>290</v>
       </c>
@@ -22786,7 +22786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>291</v>
       </c>
@@ -22800,7 +22800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>292</v>
       </c>
@@ -22814,7 +22814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>293</v>
       </c>
@@ -22828,7 +22828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>294</v>
       </c>
@@ -22842,7 +22842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>295</v>
       </c>
@@ -22856,7 +22856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>296</v>
       </c>
@@ -22870,7 +22870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>297</v>
       </c>
@@ -22884,7 +22884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>298</v>
       </c>
@@ -22898,7 +22898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>299</v>
       </c>
@@ -22912,7 +22912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>300</v>
       </c>
@@ -22926,7 +22926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>301</v>
       </c>
@@ -22940,7 +22940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>302</v>
       </c>
@@ -22954,7 +22954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>303</v>
       </c>
@@ -22968,7 +22968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>304</v>
       </c>
@@ -22982,7 +22982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>305</v>
       </c>
@@ -22996,7 +22996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>306</v>
       </c>
@@ -23010,7 +23010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>307</v>
       </c>
@@ -23024,7 +23024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>309</v>
       </c>
@@ -23038,7 +23038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>311</v>
       </c>
@@ -23052,7 +23052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>312</v>
       </c>
@@ -23066,7 +23066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>314</v>
       </c>
@@ -23080,7 +23080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>315</v>
       </c>
@@ -23094,7 +23094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>316</v>
       </c>
@@ -23108,7 +23108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>317</v>
       </c>
@@ -23122,7 +23122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>318</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>319</v>
       </c>
@@ -23150,7 +23150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>320</v>
       </c>
@@ -23164,7 +23164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>321</v>
       </c>
@@ -23178,7 +23178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>322</v>
       </c>
@@ -23192,7 +23192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>323</v>
       </c>
@@ -23206,7 +23206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>324</v>
       </c>
@@ -23220,7 +23220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>325</v>
       </c>
@@ -23234,7 +23234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>326</v>
       </c>
@@ -23248,7 +23248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>327</v>
       </c>
@@ -23262,7 +23262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>328</v>
       </c>
@@ -23276,7 +23276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>329</v>
       </c>
@@ -23290,7 +23290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>330</v>
       </c>
@@ -23304,7 +23304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>331</v>
       </c>
@@ -23318,7 +23318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>333</v>
       </c>
@@ -23332,7 +23332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>334</v>
       </c>
@@ -23346,7 +23346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>335</v>
       </c>
@@ -23360,7 +23360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>336</v>
       </c>
@@ -23374,7 +23374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>337</v>
       </c>
@@ -23388,7 +23388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>338</v>
       </c>
@@ -23402,7 +23402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>339</v>
       </c>
@@ -23416,7 +23416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>340</v>
       </c>
@@ -23430,7 +23430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>341</v>
       </c>
@@ -23444,7 +23444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>342</v>
       </c>
@@ -23458,7 +23458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>344</v>
       </c>
@@ -23472,31 +23472,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="2" t="s">
+    <row r="280" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A280" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D280" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="2" t="s">
+      <c r="D280" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A281" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D281" s="2" t="s">
+      <c r="D281" s="3" t="s">
         <v>7</v>
       </c>
     </row>
